--- a/input_test/heating_schedules_test.xlsx
+++ b/input_test/heating_schedules_test.xlsx
@@ -1,27 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mattia\desktop\GIT\LoBi\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\GIT\LoBi\input_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3186E81-00A6-4327-ABA5-BAAF82757B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDE8CBC-6D17-4B68-A12D-189263E22C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="2610" windowWidth="26865" windowHeight="14925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -116,7 +149,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,25 +468,32 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="B2" s="3" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">B2:B250</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">C2:C250</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">D2:D250</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">E2:E250</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">F2:F250</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">G2:G250</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">H2:H250</f>
         <v>0</v>
       </c>
       <c r="I2" s="3">
@@ -610,25 +650,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -726,19 +766,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -755,19 +795,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -784,19 +824,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -813,19 +853,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <v>1</v>
@@ -842,19 +882,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
         <v>1</v>
@@ -871,19 +911,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>1</v>
@@ -900,19 +940,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
         <v>1</v>
@@ -1074,25 +1114,25 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>

--- a/input_test/heating_schedules_test.xlsx
+++ b/input_test/heating_schedules_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\GIT\LoBi\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasqui\Desktop\GIT\LoBi\input_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDE8CBC-6D17-4B68-A12D-189263E22C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D92599-00D9-4907-9F69-6834BED2A9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -149,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,7 +428,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
